--- a/outputs-GTDB-r202/c__Paceibacteria.xlsx
+++ b/outputs-GTDB-r202/c__Paceibacteria.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>o__Paceibacterales</t>
+          <t>o__Paceibacterales(reject)</t>
         </is>
       </c>
     </row>
